--- a/xlsx/country_comparison/solidarity_support_pol_US_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_US_positive.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -470,477 +467,444 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.633494335624418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556813713198418</v>
+        <v>0.650759708995054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.650759708995054</v>
+        <v>0.844032647638271</v>
       </c>
       <c r="E2" t="n">
-        <v>0.844032647638271</v>
+        <v>0.67652210377724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.67652210377724</v>
+        <v>0.593169624517473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593169624517473</v>
+        <v>0.493056521315741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.493056521315741</v>
+        <v>0.608803357414973</v>
       </c>
       <c r="I2" t="n">
-        <v>0.608803357414973</v>
+        <v>0.531182230184829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.531182230184829</v>
+        <v>0.659428523523181</v>
       </c>
       <c r="K2" t="n">
-        <v>0.659428523523181</v>
+        <v>0.585009298767735</v>
       </c>
       <c r="L2" t="n">
-        <v>0.585009298767735</v>
+        <v>0.549295978763342</v>
       </c>
       <c r="M2" t="n">
-        <v>0.549295978763342</v>
+        <v>0.807022646248167</v>
       </c>
       <c r="N2" t="n">
-        <v>0.807022646248167</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.452892965198557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.563185705845955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.592543147278108</v>
+        <v>0.527112873451788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.527112873451788</v>
+        <v>0.763798468257485</v>
       </c>
       <c r="E3" t="n">
-        <v>0.763798468257485</v>
+        <v>0.60581752341295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.60581752341295</v>
+        <v>0.45525126255686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.45525126255686</v>
+        <v>0.383411391668753</v>
       </c>
       <c r="H3" t="n">
-        <v>0.383411391668753</v>
+        <v>0.510153602277153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.510153602277153</v>
+        <v>0.465702404553403</v>
       </c>
       <c r="J3" t="n">
-        <v>0.465702404553403</v>
+        <v>0.599716542340935</v>
       </c>
       <c r="K3" t="n">
-        <v>0.599716542340935</v>
+        <v>0.521094222070316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.521094222070316</v>
+        <v>0.449570088249459</v>
       </c>
       <c r="M3" t="n">
-        <v>0.449570088249459</v>
+        <v>0.735968083342179</v>
       </c>
       <c r="N3" t="n">
-        <v>0.735968083342179</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.386344486755095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.549025299914154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528946654703664</v>
+        <v>0.516507714791926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.516507714791926</v>
+        <v>0.745542832548664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.745542832548664</v>
+        <v>0.591522697640448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.591522697640448</v>
+        <v>0.393331473070931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.393331473070931</v>
+        <v>0.336693874193082</v>
       </c>
       <c r="H4" t="n">
-        <v>0.336693874193082</v>
+        <v>0.505578632976523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.505578632976523</v>
+        <v>0.481053993918987</v>
       </c>
       <c r="J4" t="n">
-        <v>0.481053993918987</v>
+        <v>0.544347714376201</v>
       </c>
       <c r="K4" t="n">
-        <v>0.544347714376201</v>
+        <v>0.508703590395835</v>
       </c>
       <c r="L4" t="n">
-        <v>0.508703590395835</v>
+        <v>0.455662843526806</v>
       </c>
       <c r="M4" t="n">
-        <v>0.455662843526806</v>
+        <v>0.697789663211793</v>
       </c>
       <c r="N4" t="n">
-        <v>0.697789663211793</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.345516117316969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.492207052765953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.427606416806061</v>
+        <v>0.483400294855792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.483400294855792</v>
+        <v>0.665040326888945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.665040326888945</v>
+        <v>0.496209696426885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.496209696426885</v>
+        <v>0.394016055359984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394016055359984</v>
+        <v>0.311581900605115</v>
       </c>
       <c r="H5" t="n">
-        <v>0.311581900605115</v>
+        <v>0.460084045480565</v>
       </c>
       <c r="I5" t="n">
-        <v>0.460084045480565</v>
+        <v>0.38441921408349</v>
       </c>
       <c r="J5" t="n">
-        <v>0.38441921408349</v>
+        <v>0.484876621406241</v>
       </c>
       <c r="K5" t="n">
-        <v>0.484876621406241</v>
+        <v>0.48345386049377</v>
       </c>
       <c r="L5" t="n">
-        <v>0.48345386049377</v>
+        <v>0.446547267517491</v>
       </c>
       <c r="M5" t="n">
-        <v>0.446547267517491</v>
+        <v>0.597618388012403</v>
       </c>
       <c r="N5" t="n">
-        <v>0.597618388012403</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.352144673086557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.487936223741052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.507741914099068</v>
+        <v>0.46081966042147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46081966042147</v>
+        <v>0.660503188555465</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660503188555465</v>
+        <v>0.52368854844778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52368854844778</v>
+        <v>0.333660323829767</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333660323829767</v>
+        <v>0.219184379605566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.219184379605566</v>
+        <v>0.387322696004644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.387322696004644</v>
+        <v>0.377769238751658</v>
       </c>
       <c r="J6" t="n">
-        <v>0.377769238751658</v>
+        <v>0.501223068595955</v>
       </c>
       <c r="K6" t="n">
-        <v>0.501223068595955</v>
+        <v>0.4534441113265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4534441113265</v>
+        <v>0.361562972247251</v>
       </c>
       <c r="M6" t="n">
-        <v>0.361562972247251</v>
+        <v>0.632667573918024</v>
       </c>
       <c r="N6" t="n">
-        <v>0.632667573918024</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.339453064229604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.48659573221636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517928538943104</v>
+        <v>0.478511511098461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.478511511098461</v>
+        <v>0.735775453712565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.735775453712565</v>
+        <v>0.533968954829481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.533968954829481</v>
+        <v>0.502745844017042</v>
       </c>
       <c r="G7" t="n">
-        <v>0.502745844017042</v>
+        <v>0.31357267707136</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31357267707136</v>
+        <v>0.484806208512163</v>
       </c>
       <c r="I7" t="n">
-        <v>0.484806208512163</v>
+        <v>0.448145256545193</v>
       </c>
       <c r="J7" t="n">
-        <v>0.448145256545193</v>
+        <v>0.511573663271019</v>
       </c>
       <c r="K7" t="n">
-        <v>0.511573663271019</v>
+        <v>0.430399217772788</v>
       </c>
       <c r="L7" t="n">
-        <v>0.430399217772788</v>
+        <v>0.366262634781694</v>
       </c>
       <c r="M7" t="n">
-        <v>0.366262634781694</v>
+        <v>0.635651938591609</v>
       </c>
       <c r="N7" t="n">
-        <v>0.635651938591609</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.33853677151088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.484505093491948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.452981297482073</v>
+        <v>0.474303899758556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.474303899758556</v>
+        <v>0.708511277775334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.708511277775334</v>
+        <v>0.53969298645928</v>
       </c>
       <c r="F8" t="n">
-        <v>0.53969298645928</v>
+        <v>0.330318887542515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.330318887542515</v>
+        <v>0.197887265448319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.197887265448319</v>
+        <v>0.385404090605957</v>
       </c>
       <c r="I8" t="n">
-        <v>0.385404090605957</v>
+        <v>0.379724102910581</v>
       </c>
       <c r="J8" t="n">
-        <v>0.379724102910581</v>
+        <v>0.486245795318551</v>
       </c>
       <c r="K8" t="n">
-        <v>0.486245795318551</v>
+        <v>0.410295764607947</v>
       </c>
       <c r="L8" t="n">
-        <v>0.410295764607947</v>
+        <v>0.378924737497152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.378924737497152</v>
+        <v>0.619589144561117</v>
       </c>
       <c r="N8" t="n">
-        <v>0.619589144561117</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.258254482209228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.472605946730509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.476425420419455</v>
+        <v>0.464233337259851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.464233337259851</v>
+        <v>0.706497297796603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.706497297796603</v>
+        <v>0.510272192063043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.510272192063043</v>
+        <v>0.418686874626132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.418686874626132</v>
+        <v>0.223394314273261</v>
       </c>
       <c r="H9" t="n">
-        <v>0.223394314273261</v>
+        <v>0.326906105388108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.326906105388108</v>
+        <v>0.340508401165705</v>
       </c>
       <c r="J9" t="n">
-        <v>0.340508401165705</v>
+        <v>0.484913392412688</v>
       </c>
       <c r="K9" t="n">
-        <v>0.484913392412688</v>
+        <v>0.441819844066427</v>
       </c>
       <c r="L9" t="n">
-        <v>0.441819844066427</v>
+        <v>0.369259741689718</v>
       </c>
       <c r="M9" t="n">
-        <v>0.369259741689718</v>
+        <v>0.605720762515847</v>
       </c>
       <c r="N9" t="n">
-        <v>0.605720762515847</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.349545584826316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.463777077783225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.497510487887524</v>
+        <v>0.466647136859669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.466647136859669</v>
+        <v>0.680637201031153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.680637201031153</v>
+        <v>0.586601734450703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.586601734450703</v>
+        <v>0.433288549559339</v>
       </c>
       <c r="G10" t="n">
-        <v>0.433288549559339</v>
+        <v>0.231140663914579</v>
       </c>
       <c r="H10" t="n">
-        <v>0.231140663914579</v>
+        <v>0.39288890608071</v>
       </c>
       <c r="I10" t="n">
-        <v>0.39288890608071</v>
+        <v>0.400497772491133</v>
       </c>
       <c r="J10" t="n">
-        <v>0.400497772491133</v>
+        <v>0.479445814803142</v>
       </c>
       <c r="K10" t="n">
-        <v>0.479445814803142</v>
+        <v>0.423068905498199</v>
       </c>
       <c r="L10" t="n">
-        <v>0.423068905498199</v>
+        <v>0.355170865465525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.355170865465525</v>
+        <v>0.611945859008054</v>
       </c>
       <c r="N10" t="n">
-        <v>0.611945859008054</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.310545566749026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.373830435892481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.368064304468157</v>
+        <v>0.346495236167622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.346495236167622</v>
+        <v>0.583607170163392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.583607170163392</v>
+        <v>0.403693792789707</v>
       </c>
       <c r="F11" t="n">
-        <v>0.403693792789707</v>
+        <v>0.3200919804881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3200919804881</v>
+        <v>0.206480752740589</v>
       </c>
       <c r="H11" t="n">
-        <v>0.206480752740589</v>
+        <v>0.301394636393387</v>
       </c>
       <c r="I11" t="n">
-        <v>0.301394636393387</v>
+        <v>0.28022832538204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28022832538204</v>
+        <v>0.378016403568197</v>
       </c>
       <c r="K11" t="n">
-        <v>0.378016403568197</v>
+        <v>0.324996925393703</v>
       </c>
       <c r="L11" t="n">
-        <v>0.324996925393703</v>
+        <v>0.285288177307175</v>
       </c>
       <c r="M11" t="n">
-        <v>0.285288177307175</v>
+        <v>0.48529662511572</v>
       </c>
       <c r="N11" t="n">
-        <v>0.48529662511572</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.257067972351958</v>
       </c>
     </row>
